--- a/src/main/resources/IMPORTAR_PRODUCTOS.xlsx
+++ b/src/main/resources/IMPORTAR_PRODUCTOS.xlsx
@@ -619,7 +619,7 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -667,8 +667,12 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3"/>
-      <c r="E3" s="3"/>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3">
+        <v>44177</v>
+      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
@@ -680,7 +684,12 @@
       <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3">
+        <v>44177</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
@@ -692,6 +701,12 @@
       <c r="C5" t="s">
         <v>8</v>
       </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" s="3">
+        <v>44177</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
@@ -703,6 +718,12 @@
       <c r="C6" t="s">
         <v>9</v>
       </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6" s="3">
+        <v>44177</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
@@ -714,6 +735,12 @@
       <c r="C7" t="s">
         <v>10</v>
       </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7" s="3">
+        <v>44177</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
@@ -725,6 +752,12 @@
       <c r="C8" t="s">
         <v>11</v>
       </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8" s="3">
+        <v>44177</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
@@ -736,6 +769,12 @@
       <c r="C9" t="s">
         <v>12</v>
       </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9" s="3">
+        <v>44177</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
@@ -747,6 +786,12 @@
       <c r="C10" t="s">
         <v>6</v>
       </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10" s="3">
+        <v>44177</v>
+      </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
@@ -758,6 +803,12 @@
       <c r="C11" t="s">
         <v>8</v>
       </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11" s="3">
+        <v>44177</v>
+      </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
@@ -769,6 +820,12 @@
       <c r="C12" t="s">
         <v>9</v>
       </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12" s="3">
+        <v>44177</v>
+      </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
@@ -780,6 +837,12 @@
       <c r="C13" t="s">
         <v>14</v>
       </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13" s="3">
+        <v>44177</v>
+      </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
@@ -791,6 +854,12 @@
       <c r="C14" t="s">
         <v>6</v>
       </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
+        <v>44177</v>
+      </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
@@ -802,6 +871,12 @@
       <c r="C15" t="s">
         <v>8</v>
       </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>44177</v>
+      </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
@@ -813,8 +888,14 @@
       <c r="C16" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16" s="3">
+        <v>44177</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>1214</v>
       </c>
@@ -824,8 +905,14 @@
       <c r="C17" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3">
+        <v>44177</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>1215</v>
       </c>
@@ -835,8 +922,14 @@
       <c r="C18" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="E18" s="3">
+        <v>44177</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>1216</v>
       </c>
@@ -846,8 +939,14 @@
       <c r="C19" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19" s="3">
+        <v>44177</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>1217</v>
       </c>
@@ -857,8 +956,14 @@
       <c r="C20" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20">
+        <v>6</v>
+      </c>
+      <c r="E20" s="3">
+        <v>44177</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>1218</v>
       </c>
@@ -868,8 +973,14 @@
       <c r="C21" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21">
+        <v>7</v>
+      </c>
+      <c r="E21" s="3">
+        <v>44177</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>1301</v>
       </c>
@@ -879,8 +990,14 @@
       <c r="C22" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22">
+        <v>8</v>
+      </c>
+      <c r="E22" s="3">
+        <v>44177</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>1302</v>
       </c>
@@ -890,8 +1007,14 @@
       <c r="C23" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23">
+        <v>8</v>
+      </c>
+      <c r="E23" s="3">
+        <v>44177</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>1303</v>
       </c>
@@ -901,8 +1024,14 @@
       <c r="C24" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24">
+        <v>9</v>
+      </c>
+      <c r="E24" s="3">
+        <v>44177</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>1304</v>
       </c>
@@ -912,8 +1041,11 @@
       <c r="C25" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="E25" s="3">
+        <v>44177</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>1305</v>
       </c>
@@ -923,8 +1055,11 @@
       <c r="C26" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="E26" s="3">
+        <v>44177</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>1332</v>
       </c>
@@ -934,8 +1069,11 @@
       <c r="C27" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="E27" s="3">
+        <v>44177</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>1310</v>
       </c>
@@ -945,8 +1083,11 @@
       <c r="C28" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="E28" s="3">
+        <v>44177</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29">
         <v>1311</v>
       </c>
@@ -956,8 +1097,11 @@
       <c r="C29" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="E29" s="3">
+        <v>44177</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>1313</v>
       </c>
@@ -967,8 +1111,11 @@
       <c r="C30" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="E30" s="3">
+        <v>44177</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31">
         <v>1314</v>
       </c>
@@ -979,7 +1126,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:5">
       <c r="A32">
         <v>1315</v>
       </c>
